--- a/xlsx/生产_intext.xlsx
+++ b/xlsx/生产_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>廠商</t>
+    <t>厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A4%AB</t>
   </si>
   <si>
-    <t>農夫</t>
+    <t>农夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%85%A7%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>室內設計</t>
+    <t>室内设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E4%BF%AE</t>
   </si>
   <si>
-    <t>裝修</t>
+    <t>装修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -383,31 +383,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -749,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -881,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -899,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -953,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
